--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2105.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2105.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.044865866374594</v>
+        <v>4.082409381866455</v>
       </c>
       <c r="B1">
-        <v>2.438172588731748</v>
+        <v>2.731302261352539</v>
       </c>
       <c r="C1">
-        <v>2.139542141333037</v>
+        <v>1.967810273170471</v>
       </c>
       <c r="D1">
-        <v>2.319571278578212</v>
+        <v>1.814416646957397</v>
       </c>
       <c r="E1">
-        <v>2.83564836589224</v>
+        <v>1.869075655937195</v>
       </c>
     </row>
   </sheetData>
